--- a/Main/test/results/soundsTDOA.xlsx
+++ b/Main/test/results/soundsTDOA.xlsx
@@ -494,57 +494,59 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>304.7288727382248</t>
+          <t>304.73</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1.647397404981478</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-19.984712529131585</t>
+          <t>-19.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-13.361230269856181</t>
+          <t>-13.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-19.78010409481063</t>
+          <t>-19.78</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-1.545093187821</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-19.677799877650155</t>
+          <t>-19.68</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-13.258926052695704</t>
+          <t>-13.26</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>17.202870408702083</t>
+          <t>17.2</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>22.701006279212233</t>
+          <t>22.7</t>
         </is>
       </c>
     </row>
@@ -552,57 +554,59 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.8026718115420048</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-1.545093187821</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-1.9280182003072597</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-13.310078161275943</t>
+          <t>-13.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-19.677799877650155</t>
+          <t>-19.68</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-1.647397404981478</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-5.201753149442551</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-13.310078161275943</t>
+          <t>-13.31</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-0.7003675943815288</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-1.1870284277593282</t>
+          <t>-1.19</t>
         </is>
       </c>
     </row>
@@ -610,57 +614,59 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.7003675943815288</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1.493941079240762</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-19.677799877650155</t>
+          <t>-19.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-13.463534487016657</t>
+          <t>-13.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-40.85477282986905</t>
+          <t>-40.85</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-1.59624529640124</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-19.78010409481063</t>
+          <t>-19.78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-13.310078161275943</t>
+          <t>-13.31</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-0.7003675943815288</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.1358763191790882</t>
+          <t>-1.14</t>
         </is>
       </c>
     </row>
@@ -668,57 +674,59 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-24.7418586270938</t>
+          <t>-24.74</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-1.545093187821</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-19.72895198623039</t>
+          <t>-19.73</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-13.310078161275943</t>
+          <t>-13.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-19.78010409481063</t>
+          <t>-19.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-1.545093187821</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-19.677799877650155</t>
+          <t>-19.68</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-13.258926052695704</t>
+          <t>-13.26</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-0.9049760287024847</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-1.1870284277593282</t>
+          <t>-1.19</t>
         </is>
       </c>
     </row>
@@ -726,57 +734,59 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.8538239201222448</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-1.59624529640124</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-37.632189989314</t>
+          <t>-37.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-13.361230269856181</t>
+          <t>-13.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24.41531771851576</t>
+          <t>24.42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-1.6985495135617177</t>
+          <t>-1.7</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-19.78010409481063</t>
+          <t>-19.78</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-13.310078161275943</t>
+          <t>-13.31</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-0.8538239201222448</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-1.2381805363395662</t>
+          <t>-1.24</t>
         </is>
       </c>
     </row>
@@ -784,57 +794,59 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.8026718115420048</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-1.59624529640124</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>164.41863890262957</t>
+          <t>164.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-13.361230269856181</t>
+          <t>-13.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.7003675943815288</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-1.6985495135617177</t>
+          <t>-1.7</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.8538239201222448</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-1.545093187821</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-1.0584323544432006</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-1.1358763191790882</t>
+          <t>-1.14</t>
         </is>
       </c>
     </row>
@@ -842,57 +854,59 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-20.64968994067469</t>
+          <t>-20.65</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-1.545093187821</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-19.831256203390872</t>
+          <t>-19.83</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-13.258926052695704</t>
+          <t>-13.26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-18.91051824894657</t>
+          <t>-18.91</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-1.493941079240762</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-0.9049760287024847</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-13.310078161275943</t>
+          <t>-13.31</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-0.9561281372827246</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-1.1870284277593282</t>
+          <t>-1.19</t>
         </is>
       </c>
     </row>
@@ -900,57 +914,59 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-30.675503222401513</t>
+          <t>-30.68</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-1.493941079240762</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.000558629629764</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-13.207773944115464</t>
+          <t>-13.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.3968688574082648</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-13.258926052695704</t>
+          <t>-13.26</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-19.78010409481063</t>
+          <t>-19.78</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-13.310078161275943</t>
+          <t>-13.31</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.4446070514803332</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-1.3404847535000441</t>
+          <t>-1.34</t>
         </is>
       </c>
     </row>
@@ -958,57 +974,59 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.8026718115420048</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-1.545093187821</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-21.62158000369923</t>
+          <t>-21.62</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-13.310078161275943</t>
+          <t>-13.31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7.125905018395019</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-1.59624529640124</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-19.78010409481063</t>
+          <t>-19.78</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-13.310078161275943</t>
+          <t>-13.31</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-0.8538239201222448</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0.9312678848581345</t>
+          <t>-0.93</t>
         </is>
       </c>
     </row>
@@ -1016,57 +1034,59 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.0584323544432006</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-1.8008537307221957</t>
+          <t>-1.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-19.831256203390872</t>
+          <t>-19.83</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-13.463534487016657</t>
+          <t>-13.46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-8.015119121355688</t>
+          <t>-8.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-1.59624529640124</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-19.575495660489675</t>
+          <t>-19.58</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-13.258926052695704</t>
+          <t>-13.26</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-1.1095844630234406</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-1.3404847535000441</t>
+          <t>-1.34</t>
         </is>
       </c>
     </row>
